--- a/filtermail.xlsx
+++ b/filtermail.xlsx
@@ -19,21 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FilterMail</t>
-  </si>
-  <si>
-    <t>nikita@sourcesoftsolutions.com</t>
   </si>
   <si>
     <t>utkarshpandey2697@gmail.com</t>
   </si>
   <si>
     <t>arpit@sourcesoftsolutions.com</t>
-  </si>
-  <si>
-    <t>pandeyutkarsh2407@gmail.com</t>
   </si>
   <si>
     <t>utkarsh.sourcesoft@gmail.com</t>
@@ -365,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,23 +390,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
